--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B2DB8F-65AF-41B9-9BE5-C08F8043939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46534-4FB4-4A71-96C5-0A948A08A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46534-4FB4-4A71-96C5-0A948A08A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A144D-2EC7-43A0-A7BC-A844CB104AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A144D-2EC7-43A0-A7BC-A844CB104AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473B244-99AE-4BC3-B23D-FBD16F1C32FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473B244-99AE-4BC3-B23D-FBD16F1C32FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EC56E-642E-4640-A8C4-371E39590280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EC56E-642E-4640-A8C4-371E39590280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB134B-E389-4D09-AF67-C87F9311928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB134B-E389-4D09-AF67-C87F9311928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB863A5F-CFDC-428D-B1B6-DB8466D2DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31935" yWindow="-9135" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB863A5F-CFDC-428D-B1B6-DB8466D2DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578E853-A360-471B-A54A-F69DC243EB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31935" yWindow="-9135" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578E853-A360-471B-A54A-F69DC243EB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7CBDD9-9731-40DB-BB2C-4923E4E96C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="-9135" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7CBDD9-9731-40DB-BB2C-4923E4E96C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C7BFB-5347-4DCC-85D7-AFC040168707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C7BFB-5347-4DCC-85D7-AFC040168707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D1AD1-CE3E-4E3E-AB4F-10DE2B8BA06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D1AD1-CE3E-4E3E-AB4F-10DE2B8BA06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C7C24-325E-4807-8F10-AE37327D00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C7C24-325E-4807-8F10-AE37327D00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E227E-C780-43D2-B09B-68687B28F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E227E-C780-43D2-B09B-68687B28F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B64451-C676-427C-9AB6-F1727DD6BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B64451-C676-427C-9AB6-F1727DD6BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB4CA6-70AC-4DBE-BF11-37473B95FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB4CA6-70AC-4DBE-BF11-37473B95FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFB062-8A59-42AD-98AC-62225387AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFB062-8A59-42AD-98AC-62225387AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690D624-9A29-4272-BC81-7F96952B2511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690D624-9A29-4272-BC81-7F96952B2511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F2EE3-DB89-4410-A017-68420273726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2045.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F2EE3-DB89-4410-A017-68420273726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C65A9-149A-49A1-BA0D-09A9AFE0B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48585" yWindow="-6510" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
